--- a/data/Assessment-Structures.xlsx
+++ b/data/Assessment-Structures.xlsx
@@ -2588,7 +2588,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="20">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s" s="21">
         <v>90</v>
